--- a/客户端架构.xlsx
+++ b/客户端架构.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>主体</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -186,6 +186,22 @@
   </si>
   <si>
     <t>待做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于UI和场景分层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NGUI是使用双摄像机，分别渲染不同的层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UGUI设置canvas为ScreenSpace-Camera，然后设置摄像机</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -596,15 +612,15 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -618,7 +634,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -632,7 +648,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -643,7 +659,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>5</v>
       </c>
@@ -651,17 +667,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="D7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -669,7 +685,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>8</v>
       </c>
@@ -677,87 +693,99 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="L16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="L17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="L18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="L19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
         <v>38</v>
       </c>

--- a/客户端架构.xlsx
+++ b/客户端架构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="资源" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="网络和协议" sheetId="4" r:id="rId4"/>
     <sheet name="消息机制" sheetId="5" r:id="rId5"/>
     <sheet name="热更" sheetId="6" r:id="rId6"/>
+    <sheet name="log" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
   <si>
     <t>主体</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -202,6 +203,70 @@
   </si>
   <si>
     <t>UGUI设置canvas为ScreenSpace-Camera，然后设置摄像机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思考：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当ab读取失败的时候应该怎么做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ab依赖测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我写的代码够健壮吗（毕竟资源是比较底层的东西）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试思路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴洲的循环依赖问题怎么解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A持有B\D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B持有C\D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D持有E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四个ab：A\B\C\D\E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题点：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ab在资源目录下，打ab会把cde全部打成ab，正确地应该是生成a\b\d</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -572,10 +637,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A10:A15"/>
+  <dimension ref="A10:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -598,6 +663,81 @@
     <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>48</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -614,8 +754,8 @@
   </sheetPr>
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -877,4 +1017,18 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>